--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>xy</t>
   </si>
@@ -85,6 +85,10 @@
   </si>
   <si>
     <t xml:space="preserve"> 昨天晚上一点过睡的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天晚上一点半以后睡的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,6 +285,9 @@
                 <c:pt idx="0">
                   <c:v>43164</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>43165</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -292,6 +299,9 @@
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -306,11 +316,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="76107776"/>
-        <c:axId val="76109696"/>
+        <c:axId val="74260480"/>
+        <c:axId val="74262400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="76107776"/>
+        <c:axId val="74260480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -386,14 +396,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76109696"/>
+        <c:crossAx val="74262400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="76109696"/>
+        <c:axId val="74262400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -483,7 +493,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76107776"/>
+        <c:crossAx val="74260480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -560,7 +570,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -586,7 +596,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -873,7 +883,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -884,14 +894,14 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
     <col min="5" max="6" width="6.125" customWidth="1"/>
     <col min="7" max="7" width="18.75" customWidth="1"/>
     <col min="8" max="8" width="5.5" customWidth="1"/>
@@ -920,9 +930,15 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="2">
+        <v>43165</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2"/>
@@ -1022,7 +1038,7 @@
     <row r="23" spans="1:11">
       <c r="B23" s="3">
         <f>SUBTOTAL(109,[xy])</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C23" s="3"/>
     </row>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>xy</t>
   </si>
@@ -80,15 +80,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 昨天晚上一点过睡的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昨天晚上一点半以后睡的</t>
+    <t>睡觉时间，以10点半为起点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,30 +270,36 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>身体状态!$A$2:$A$23</c:f>
+              <c:f>身体状态!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/m/d</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>身体状态!$B$2:$B$22</c:f>
+              <c:f>身体状态!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -312,15 +310,66 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>身体状态!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>睡觉时间，以10点半为起点</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>身体状态!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>43164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>身体状态!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="74260480"/>
-        <c:axId val="74262400"/>
+        <c:axId val="62464000"/>
+        <c:axId val="62465920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="74260480"/>
+        <c:axId val="62464000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,14 +445,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74262400"/>
+        <c:crossAx val="62465920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="74262400"/>
+        <c:axId val="62465920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -493,7 +542,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74260480"/>
+        <c:crossAx val="62464000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -570,7 +619,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -622,7 +671,7 @@
   <autoFilter ref="B1:C22"/>
   <tableColumns count="2">
     <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="1"/>
-    <tableColumn id="1" name="说明" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="2" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -894,14 +943,14 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="5" max="6" width="6.125" customWidth="1"/>
     <col min="7" max="7" width="18.75" customWidth="1"/>
     <col min="8" max="8" width="5.5" customWidth="1"/>
@@ -925,8 +974,8 @@
       <c r="B2" s="4">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
+      <c r="C2" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -936,14 +985,20 @@
       <c r="B3" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
+      <c r="C3" s="4">
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
@@ -1038,7 +1093,7 @@
     <row r="23" spans="1:11">
       <c r="B23" s="3">
         <f>SUBTOTAL(109,[xy])</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3"/>
     </row>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>xy</t>
   </si>
@@ -28,59 +28,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>超级精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一点萎靡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萎靡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲惫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一点点疲惫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常疲惫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很疲惫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身心俱疲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旨在找到自己身体什么时候更疲劳，怀疑自己的身体像月经一样有规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡觉时间，以10点半为起点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">疲劳状态 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完全学不进去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级精神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很精神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有一点萎靡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萎靡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲惫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一点点疲惫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非常疲惫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很疲惫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身心俱疲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旨在找到自己身体什么时候更疲劳，怀疑自己的身体像月经一样有规律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡觉时间，以10点半为起点</t>
+    <t>非常好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好得不能再好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神得不能再精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不太好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崩溃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,12 +206,19 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -238,17 +293,17 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>身体状态!$B$1</c:f>
+              <c:f>身体状态!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>xy</c:v>
+                  <c:v>睡觉时间，以10点半为起点</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -283,23 +338,29 @@
                 <c:pt idx="2">
                   <c:v>43166</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>43167</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>身体状态!$B$2:$B$4</c:f>
+              <c:f>身体状态!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -315,11 +376,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>身体状态!$C$1</c:f>
+              <c:f>身体状态!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>睡觉时间，以10点半为起点</c:v>
+                  <c:v>心情</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -339,23 +400,86 @@
                 <c:pt idx="2">
                   <c:v>43166</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>43167</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>身体状态!$C$2:$C$4</c:f>
+              <c:f>身体状态!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>身体状态!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>xy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>身体状态!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>43164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>身体状态!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -365,11 +489,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="62464000"/>
-        <c:axId val="62465920"/>
+        <c:axId val="84882560"/>
+        <c:axId val="84884480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="62464000"/>
+        <c:axId val="84882560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,14 +569,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62465920"/>
+        <c:crossAx val="84884480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="62465920"/>
+        <c:axId val="84884480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -542,7 +666,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62464000"/>
+        <c:crossAx val="84882560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -619,7 +743,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -645,7 +769,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -667,11 +791,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="B1:C23" totalsRowCount="1" headerRowDxfId="6" dataDxfId="5" totalsRowDxfId="4">
-  <autoFilter ref="B1:C22"/>
-  <tableColumns count="2">
-    <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="1"/>
-    <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="2" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="B1:D23" totalsRowCount="1" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
+  <autoFilter ref="B1:D22">
+    <filterColumn colId="2"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="2"/>
+    <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="4" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="心情" dataDxfId="3" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -932,7 +1059,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -949,14 +1076,14 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="5" max="6" width="6.125" customWidth="1"/>
     <col min="7" max="7" width="18.75" customWidth="1"/>
     <col min="8" max="8" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -964,10 +1091,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>43164</v>
       </c>
@@ -977,8 +1107,11 @@
       <c r="C2" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>43165</v>
       </c>
@@ -988,8 +1121,11 @@
       <c r="C3" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>43166</v>
       </c>
@@ -999,107 +1135,140 @@
       <c r="C4" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:11">
       <c r="B23" s="3">
         <f>SUBTOTAL(109,[xy])</f>
+        <v>19</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="B28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="3" t="s">
-        <v>2</v>
+      <c r="C28" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1107,7 +1276,10 @@
         <v>0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1115,7 +1287,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1123,10 +1298,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -1140,63 +1318,87 @@
         <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="3">
         <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="3">
         <v>5</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="3">
         <v>6</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="3">
         <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="3">
         <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="3">
         <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="3">
         <v>10</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -341,6 +341,9 @@
                 <c:pt idx="3">
                   <c:v>43167</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>43168</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -361,6 +364,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -403,6 +409,9 @@
                 <c:pt idx="3">
                   <c:v>43167</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>43168</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -422,6 +431,9 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -460,6 +472,9 @@
                 <c:pt idx="3">
                   <c:v>43167</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>43168</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -481,6 +496,9 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -489,11 +507,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="84882560"/>
-        <c:axId val="84884480"/>
+        <c:axId val="58961920"/>
+        <c:axId val="58963840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="84882560"/>
+        <c:axId val="58961920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -569,14 +587,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84884480"/>
+        <c:crossAx val="58963840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="84884480"/>
+        <c:axId val="58963840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,7 +684,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84882560"/>
+        <c:crossAx val="58961920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -743,7 +761,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -769,7 +787,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1059,7 +1077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1070,7 +1088,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1154,10 +1172,18 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
@@ -1258,7 +1284,7 @@
     <row r="23" spans="1:11">
       <c r="B23" s="3">
         <f>SUBTOTAL(109,[xy])</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -344,6 +344,9 @@
                 <c:pt idx="4">
                   <c:v>43168</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>43169</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -367,6 +370,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -412,6 +418,9 @@
                 <c:pt idx="4">
                   <c:v>43168</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>43169</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -434,6 +443,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -475,6 +487,9 @@
                 <c:pt idx="4">
                   <c:v>43168</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>43169</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -499,6 +514,9 @@
                 <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -507,11 +525,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="58961920"/>
-        <c:axId val="58963840"/>
+        <c:axId val="83668992"/>
+        <c:axId val="83670912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="58961920"/>
+        <c:axId val="83668992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,14 +605,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58963840"/>
+        <c:crossAx val="83670912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="58963840"/>
+        <c:axId val="83670912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,7 +702,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58961920"/>
+        <c:crossAx val="83668992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -761,7 +779,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -787,7 +805,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1077,7 +1095,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1088,7 +1106,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1186,10 +1204,18 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="2">
+        <v>43169</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2"/>
@@ -1284,7 +1310,7 @@
     <row r="23" spans="1:11">
       <c r="B23" s="3">
         <f>SUBTOTAL(109,[xy])</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>xy</t>
   </si>
@@ -130,6 +130,13 @@
   <si>
     <t>崩溃</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 这天晚上跟她生闷气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
   </si>
 </sst>
 </file>
@@ -187,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -202,16 +209,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -221,8 +232,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -292,8 +309,8 @@
     </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
@@ -347,6 +364,12 @@
                 <c:pt idx="5">
                   <c:v>43169</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>43170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43171</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -372,6 +395,12 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -397,6 +426,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>身体状态!$A$2:$A$22</c:f>
@@ -420,6 +452,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>43169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -447,6 +485,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,6 +510,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>身体状态!$A$2:$A$22</c:f>
@@ -489,6 +536,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>43169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43170</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,23 +570,26 @@
                 <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showVal val="1"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:axId val="83668992"/>
-        <c:axId val="83670912"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="83668992"/>
+        <c:axId val="44135168"/>
+        <c:axId val="73971584"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="44135168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -605,14 +661,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83670912"/>
+        <c:crossAx val="73971584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="83670912"/>
+        <c:axId val="73971584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,7 +758,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83668992"/>
+        <c:crossAx val="44135168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -728,7 +784,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -779,7 +835,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -789,16 +845,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>276227</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352427</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -827,14 +883,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="B1:D23" totalsRowCount="1" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
-  <autoFilter ref="B1:D22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="B1:E23" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B1:E22">
     <filterColumn colId="2"/>
+    <filterColumn colId="3"/>
   </autoFilter>
-  <tableColumns count="3">
-    <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="2"/>
-    <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="4" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="心情" dataDxfId="3" totalsRowDxfId="0"/>
+  <tableColumns count="4">
+    <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="心情" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="3" name="列1" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1103,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1114,12 +1172,13 @@
     <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="5" max="6" width="6.125" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="6.125" customWidth="1"/>
     <col min="7" max="7" width="18.75" customWidth="1"/>
     <col min="8" max="8" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1132,8 +1191,11 @@
       <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>43164</v>
       </c>
@@ -1146,8 +1208,9 @@
       <c r="D2" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>43165</v>
       </c>
@@ -1160,8 +1223,9 @@
       <c r="D3" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>43166</v>
       </c>
@@ -1174,8 +1238,9 @@
       <c r="D4" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>43167</v>
       </c>
@@ -1188,8 +1253,9 @@
       <c r="D5" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>43168</v>
       </c>
@@ -1202,8 +1268,9 @@
       <c r="D6" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>43169</v>
       </c>
@@ -1216,104 +1283,139 @@
       <c r="D7" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>43170</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:11">
       <c r="B23" s="3">
         <f>SUBTOTAL(109,[xy])</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="28" spans="1:11">
       <c r="B28" s="3" t="s">
@@ -1354,9 +1456,6 @@
       </c>
       <c r="C31" t="s">
         <v>18</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -1451,6 +1550,11 @@
       </c>
       <c r="C39" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="85.5">
+      <c r="A41" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -218,11 +218,13 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -232,14 +234,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -370,6 +370,9 @@
                 <c:pt idx="7">
                   <c:v>43171</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43172</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -402,6 +405,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -459,6 +465,9 @@
                 <c:pt idx="7">
                   <c:v>43171</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43172</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -490,6 +499,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -543,6 +555,9 @@
                 <c:pt idx="7">
                   <c:v>43171</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>43172</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -576,15 +591,18 @@
                 <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="44135168"/>
-        <c:axId val="73971584"/>
+        <c:axId val="60014592"/>
+        <c:axId val="60016512"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="44135168"/>
+        <c:axId val="60014592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,14 +679,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73971584"/>
+        <c:crossAx val="60016512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73971584"/>
+        <c:axId val="60016512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -758,7 +776,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44135168"/>
+        <c:crossAx val="60014592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -835,7 +853,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -861,7 +879,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -889,10 +907,10 @@
     <filterColumn colId="3"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="心情" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="3" name="列1" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1153,7 +1171,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1164,7 +1182,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1318,10 +1336,18 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
@@ -1411,7 +1437,7 @@
     <row r="23" spans="1:11">
       <c r="B23" s="3">
         <f>SUBTOTAL(109,[xy])</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -409,6 +409,9 @@
                 <c:pt idx="8">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -504,6 +507,9 @@
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -594,15 +600,18 @@
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="60014592"/>
-        <c:axId val="60016512"/>
+        <c:axId val="73711616"/>
+        <c:axId val="73713536"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="60014592"/>
+        <c:axId val="73711616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,14 +688,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60016512"/>
+        <c:crossAx val="73713536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60016512"/>
+        <c:axId val="73713536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,17 +785,10 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60014592"/>
+        <c:crossAx val="73711616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -853,7 +855,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -879,7 +881,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1171,7 +1173,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1182,7 +1184,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1352,9 +1354,15 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
@@ -1437,7 +1445,7 @@
     <row r="23" spans="1:11">
       <c r="B23" s="3">
         <f>SUBTOTAL(109,[xy])</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -373,6 +373,12 @@
                 <c:pt idx="8">
                   <c:v>43172</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>43173</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43174</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -411,6 +417,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -471,6 +480,12 @@
                 <c:pt idx="8">
                   <c:v>43172</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>43173</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43174</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -508,6 +523,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -564,6 +582,12 @@
                 <c:pt idx="8">
                   <c:v>43172</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>43173</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43174</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -603,15 +627,18 @@
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="73711616"/>
-        <c:axId val="73713536"/>
+        <c:axId val="63291392"/>
+        <c:axId val="63293312"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="73711616"/>
+        <c:axId val="63291392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,14 +715,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73713536"/>
+        <c:crossAx val="63293312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73713536"/>
+        <c:axId val="63293312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +812,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73711616"/>
+        <c:crossAx val="63291392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -855,7 +882,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -881,7 +908,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1173,7 +1200,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1184,7 +1211,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1353,7 +1380,9 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>43173</v>
+      </c>
       <c r="B11" s="4">
         <v>3</v>
       </c>
@@ -1366,10 +1395,18 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
@@ -1445,7 +1482,7 @@
     <row r="23" spans="1:11">
       <c r="B23" s="3">
         <f>SUBTOTAL(109,[xy])</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -379,6 +379,9 @@
                 <c:pt idx="10">
                   <c:v>43174</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>43175</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -420,6 +423,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -486,6 +492,9 @@
                 <c:pt idx="10">
                   <c:v>43174</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>43175</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -526,6 +535,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -588,6 +600,9 @@
                 <c:pt idx="10">
                   <c:v>43174</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>43175</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -630,15 +645,18 @@
                 <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="63291392"/>
-        <c:axId val="63293312"/>
+        <c:axId val="62562304"/>
+        <c:axId val="62564224"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="63291392"/>
+        <c:axId val="62562304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,14 +733,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63293312"/>
+        <c:crossAx val="62564224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63293312"/>
+        <c:axId val="62564224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,7 +830,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63291392"/>
+        <c:crossAx val="62562304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -882,7 +900,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -908,7 +926,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1200,7 +1218,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1211,7 +1229,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1410,10 +1428,18 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
@@ -1482,7 +1508,7 @@
     <row r="23" spans="1:11">
       <c r="B23" s="3">
         <f>SUBTOTAL(109,[xy])</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>xy</t>
   </si>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>列1</t>
+  </si>
+  <si>
+    <t>睡得晚，眼睛有点痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -382,6 +386,9 @@
                 <c:pt idx="11">
                   <c:v>43175</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>43176</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -426,6 +433,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,6 +505,9 @@
                 <c:pt idx="11">
                   <c:v>43175</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>43176</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -538,6 +551,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -603,6 +619,9 @@
                 <c:pt idx="11">
                   <c:v>43175</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>43176</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -648,15 +667,18 @@
                 <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="62562304"/>
-        <c:axId val="62564224"/>
+        <c:axId val="79867904"/>
+        <c:axId val="79869824"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="62562304"/>
+        <c:axId val="79867904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,14 +755,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62564224"/>
+        <c:crossAx val="79869824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62564224"/>
+        <c:axId val="79869824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +852,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62562304"/>
+        <c:crossAx val="79867904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -900,7 +922,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -926,7 +948,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1218,7 +1240,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1229,7 +1251,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1443,11 +1465,21 @@
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="2">
+        <v>43176</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
@@ -1508,7 +1540,7 @@
     <row r="23" spans="1:11">
       <c r="B23" s="3">
         <f>SUBTOTAL(109,[xy])</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -389,6 +389,15 @@
                 <c:pt idx="12">
                   <c:v>43176</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>43177</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43178</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43179</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -436,6 +445,15 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -508,6 +526,15 @@
                 <c:pt idx="12">
                   <c:v>43176</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>43177</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43178</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43179</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -554,6 +581,15 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -622,6 +658,15 @@
                 <c:pt idx="12">
                   <c:v>43176</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>43177</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43178</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43179</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -670,15 +715,24 @@
                 <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79867904"/>
-        <c:axId val="79869824"/>
+        <c:axId val="68268032"/>
+        <c:axId val="68269952"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="79867904"/>
+        <c:axId val="68268032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,14 +809,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79869824"/>
+        <c:crossAx val="68269952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79869824"/>
+        <c:axId val="68269952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,10 +906,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79867904"/>
+        <c:crossAx val="68268032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -922,7 +981,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -948,7 +1007,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,7 +1299,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1251,7 +1310,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1482,24 +1541,48 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="2">
+        <v>43177</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:11">
@@ -1540,7 +1623,7 @@
     <row r="23" spans="1:11">
       <c r="B23" s="3">
         <f>SUBTOTAL(109,[xy])</f>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -453,7 +453,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,7 +590,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -722,17 +722,17 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68268032"/>
-        <c:axId val="68269952"/>
+        <c:axId val="64008192"/>
+        <c:axId val="64010112"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="68268032"/>
+        <c:axId val="64008192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,14 +809,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68269952"/>
+        <c:crossAx val="64010112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68269952"/>
+        <c:axId val="64010112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +906,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68268032"/>
+        <c:crossAx val="64008192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -981,7 +981,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1007,7 +1007,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,7 +1299,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1310,7 +1310,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1575,13 +1575,13 @@
         <v>43179</v>
       </c>
       <c r="B17" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C17" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -1623,7 +1623,7 @@
     <row r="23" spans="1:11">
       <c r="B23" s="3">
         <f>SUBTOTAL(109,[xy])</f>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A69A9C4-7555-4AB0-AC50-CE64FE7076CB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="身体状态" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="171027"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>xy</t>
   </si>
@@ -140,14 +141,18 @@
   </si>
   <si>
     <t>睡得晚，眼睛有点痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感冒了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,42 +227,42 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -273,8 +278,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -302,7 +317,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -311,10 +326,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
@@ -337,8 +354,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -348,7 +371,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -397,6 +420,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -455,10 +481,13 @@
                 <c:pt idx="15">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-28CA-47A6-B8D8-3FE9652FF6B7}"/>
             </c:ext>
@@ -479,13 +508,31 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>身体状态!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -534,6 +581,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -592,9 +642,17 @@
                 <c:pt idx="15">
                   <c:v>7</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2DC-4425-9D9D-76E30BA0122B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -611,13 +669,31 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>身体状态!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -666,6 +742,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,10 +803,26 @@
                 <c:pt idx="15">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E2DC-4425-9D9D-76E30BA0122B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="64008192"/>
         <c:axId val="64010112"/>
       </c:radarChart>
@@ -736,6 +831,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -764,7 +860,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -773,8 +869,9 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -814,12 +911,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="64010112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -861,7 +960,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -872,6 +971,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -918,7 +1018,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -947,7 +1047,9 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1007,7 +1109,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1029,16 +1131,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="B1:E23" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B1:E22">
-    <filterColumn colId="2"/>
-    <filterColumn colId="3"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_2" displayName="表2_2" ref="B1:E23" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B1:E22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="3" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1299,21 +1398,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
@@ -1324,7 +1423,7 @@
     <col min="8" max="8" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1341,7 +1440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43164</v>
       </c>
@@ -1356,7 +1455,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43165</v>
       </c>
@@ -1371,7 +1470,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43166</v>
       </c>
@@ -1386,7 +1485,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43167</v>
       </c>
@@ -1401,7 +1500,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43168</v>
       </c>
@@ -1416,7 +1515,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43169</v>
       </c>
@@ -1433,7 +1532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43170</v>
       </c>
@@ -1448,7 +1547,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43171</v>
       </c>
@@ -1463,7 +1562,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43172</v>
       </c>
@@ -1478,7 +1577,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43173</v>
       </c>
@@ -1493,7 +1592,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43174</v>
       </c>
@@ -1508,7 +1607,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43175</v>
       </c>
@@ -1523,7 +1622,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43176</v>
       </c>
@@ -1540,7 +1639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43177</v>
       </c>
@@ -1555,7 +1654,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43178</v>
       </c>
@@ -1570,7 +1669,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43179</v>
       </c>
@@ -1585,51 +1684,61 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
-        <f>SUBTOTAL(109,[xy])</f>
-        <v>65</v>
+        <f>SUBTOTAL(109,表2_2[xy])</f>
+        <v>70</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>15</v>
       </c>
@@ -1637,7 +1746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>0</v>
       </c>
@@ -1648,7 +1757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -1659,7 +1768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>2</v>
       </c>
@@ -1676,7 +1785,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>3</v>
       </c>
@@ -1687,7 +1796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -1698,7 +1807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -1709,7 +1818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>6</v>
       </c>
@@ -1720,7 +1829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>7</v>
       </c>
@@ -1731,7 +1840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>8</v>
       </c>
@@ -1742,7 +1851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>9</v>
       </c>
@@ -1753,7 +1862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>10</v>
       </c>
@@ -1764,7 +1873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="85.5">
+    <row r="41" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>12</v>
       </c>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A69A9C4-7555-4AB0-AC50-CE64FE7076CB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="身体状态" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>xy</t>
   </si>
@@ -145,14 +144,18 @@
   </si>
   <si>
     <t>感冒了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">感冒 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,42 +230,42 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -278,18 +281,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -317,7 +310,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -326,12 +319,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
@@ -354,14 +345,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -371,7 +356,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -423,6 +408,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43180</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -484,10 +472,13 @@
                 <c:pt idx="16">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-28CA-47A6-B8D8-3FE9652FF6B7}"/>
             </c:ext>
@@ -515,14 +506,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -532,7 +517,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -584,6 +569,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43180</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -645,10 +633,13 @@
                 <c:pt idx="16">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
@@ -676,14 +667,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -693,7 +678,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -745,6 +730,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43180</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,32 +794,27 @@
                 <c:pt idx="16">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="64008192"/>
-        <c:axId val="64010112"/>
+        <c:dLbls/>
+        <c:axId val="86229760"/>
+        <c:axId val="86231680"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="64008192"/>
+        <c:axId val="86229760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -860,7 +843,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -869,9 +852,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -906,19 +888,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64010112"/>
+        <c:crossAx val="86231680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64010112"/>
+        <c:axId val="86231680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -960,7 +940,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -971,7 +951,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1006,7 +985,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64008192"/>
+        <c:crossAx val="86229760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1018,7 +997,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1047,9 +1026,7 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1083,7 +1060,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1109,7 +1086,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1131,13 +1108,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_2" displayName="表2_2" ref="B1:E23" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B1:E22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="B1:E23" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B1:E22"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1398,21 +1375,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
@@ -1423,7 +1400,7 @@
     <col min="8" max="8" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1417,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>43164</v>
       </c>
@@ -1455,7 +1432,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>43165</v>
       </c>
@@ -1470,7 +1447,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>43166</v>
       </c>
@@ -1485,7 +1462,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>43167</v>
       </c>
@@ -1500,7 +1477,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>43168</v>
       </c>
@@ -1515,7 +1492,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>43169</v>
       </c>
@@ -1532,7 +1509,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>43170</v>
       </c>
@@ -1547,7 +1524,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>43171</v>
       </c>
@@ -1562,7 +1539,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>43172</v>
       </c>
@@ -1577,7 +1554,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>43173</v>
       </c>
@@ -1592,7 +1569,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>43174</v>
       </c>
@@ -1607,7 +1584,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>43175</v>
       </c>
@@ -1622,7 +1599,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>43176</v>
       </c>
@@ -1639,7 +1616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>43177</v>
       </c>
@@ -1654,7 +1631,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>43178</v>
       </c>
@@ -1669,7 +1646,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>43179</v>
       </c>
@@ -1684,7 +1661,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>43180</v>
       </c>
@@ -1701,44 +1678,54 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
+      <c r="A19" s="2">
+        <v>43181</v>
+      </c>
+      <c r="B19" s="4">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="B23" s="3">
-        <f>SUBTOTAL(109,表2_2[xy])</f>
-        <v>70</v>
+        <f>SUBTOTAL(109,[xy])</f>
+        <v>75</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="B28" s="3" t="s">
         <v>15</v>
       </c>
@@ -1746,7 +1733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="3">
         <v>0</v>
       </c>
@@ -1757,7 +1744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -1768,7 +1755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="3">
         <v>2</v>
       </c>
@@ -1785,7 +1772,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="3">
         <v>3</v>
       </c>
@@ -1796,7 +1783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -1807,7 +1794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -1818,7 +1805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="3">
         <v>6</v>
       </c>
@@ -1829,7 +1816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="3">
         <v>7</v>
       </c>
@@ -1840,7 +1827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3">
         <v>8</v>
       </c>
@@ -1851,7 +1838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3">
         <v>9</v>
       </c>
@@ -1862,7 +1849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="3">
         <v>10</v>
       </c>
@@ -1873,7 +1860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="85.5">
       <c r="A41" s="6" t="s">
         <v>12</v>
       </c>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>xy</t>
   </si>
@@ -148,6 +148,10 @@
   </si>
   <si>
     <t xml:space="preserve">感冒 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有一点感冒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,10 +358,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>身体状态!$A$2:$A$22</c:f>
+              <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/m/d</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
                 </c:pt>
@@ -411,16 +415,43 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>43181</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43182</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43183</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43184</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43187</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43188</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43189</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43190</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>身体状态!$C$2:$C$22</c:f>
+              <c:f>身体状态!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -474,6 +505,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -515,10 +549,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>身体状态!$A$2:$A$22</c:f>
+              <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/m/d</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
                 </c:pt>
@@ -572,16 +606,43 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>43181</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43182</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43183</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43184</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43187</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43188</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43189</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43190</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>身体状态!$D$2:$D$22</c:f>
+              <c:f>身体状态!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -634,6 +695,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -676,10 +740,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>身体状态!$A$2:$A$22</c:f>
+              <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/m/d</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
                 </c:pt>
@@ -733,16 +797,43 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>43181</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43182</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43183</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43184</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43187</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43188</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43189</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43190</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>身体状态!$B$2:$B$22</c:f>
+              <c:f>身体状态!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -796,6 +887,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,12 +900,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="86229760"/>
-        <c:axId val="86231680"/>
+        <c:axId val="89815296"/>
+        <c:axId val="89457024"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="86229760"/>
+        <c:axId val="89815296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,14 +981,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86231680"/>
+        <c:crossAx val="89457024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86231680"/>
+        <c:axId val="89457024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,7 +1078,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86229760"/>
+        <c:crossAx val="89815296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1060,7 +1153,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1078,7 +1171,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>352427</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1108,8 +1201,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="B1:E23" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B1:E22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="B1:E29" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B1:E28"/>
   <tableColumns count="4">
     <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
     <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
@@ -1383,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1646,7 +1739,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>43179</v>
       </c>
@@ -1661,7 +1754,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>43180</v>
       </c>
@@ -1678,7 +1771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>43181</v>
       </c>
@@ -1695,173 +1788,241 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2"/>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>43183</v>
+      </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>43184</v>
+      </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="3">
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>43187</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>43188</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>43190</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="3">
         <f>SUBTOTAL(109,[xy])</f>
-        <v>75</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="B28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="3">
+    <row r="35" spans="1:11">
+      <c r="A35" s="3">
         <v>0</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="3">
+    <row r="36" spans="1:11">
+      <c r="A36" s="3">
         <v>1</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="3">
+    <row r="37" spans="1:11">
+      <c r="A37" s="3">
         <v>2</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="3">
-        <v>3</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="3">
+        <v>3</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C38" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3">
+    <row r="39" spans="1:11">
+      <c r="A39" s="3">
         <v>4</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3">
+    <row r="40" spans="1:11">
+      <c r="A40" s="3">
         <v>5</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3">
+    <row r="41" spans="1:11">
+      <c r="A41" s="3">
         <v>6</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="3">
+    <row r="42" spans="1:11">
+      <c r="A42" s="3">
         <v>7</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3">
+    <row r="43" spans="1:11">
+      <c r="A43" s="3">
         <v>8</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3">
+    <row r="44" spans="1:11">
+      <c r="A44" s="3">
         <v>9</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="3">
+    <row r="45" spans="1:11">
+      <c r="A45" s="3">
         <v>10</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C45" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="85.5">
-      <c r="A41" s="6" t="s">
+    <row r="47" spans="1:11" ht="85.5">
+      <c r="A47" s="6" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6A2319-D550-4104-80A3-CAD697DFCCBF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="身体状态" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="171027"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>xy</t>
   </si>
@@ -152,14 +153,18 @@
   </si>
   <si>
     <t>还有一点感冒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本好了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,42 +239,42 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -285,8 +290,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -314,7 +329,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -323,10 +338,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
@@ -349,8 +366,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -360,7 +383,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -509,10 +532,13 @@
                 <c:pt idx="18">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-28CA-47A6-B8D8-3FE9652FF6B7}"/>
             </c:ext>
@@ -540,8 +566,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -551,7 +583,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -700,10 +732,13 @@
                 <c:pt idx="18">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
@@ -731,8 +766,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -742,7 +783,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -891,15 +932,26 @@
                 <c:pt idx="18">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="89815296"/>
         <c:axId val="89457024"/>
       </c:radarChart>
@@ -908,6 +960,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -936,7 +989,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -945,8 +998,9 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -986,12 +1040,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="89457024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1033,7 +1089,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1044,6 +1100,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1090,7 +1147,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1119,7 +1176,9 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1179,7 +1238,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,13 +1260,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="B1:E29" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B1:E28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_2" displayName="表2_2" ref="B1:E29" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B1:E28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="3" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1468,21 +1527,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
@@ -1493,7 +1552,7 @@
     <col min="8" max="8" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1510,7 +1569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43164</v>
       </c>
@@ -1525,7 +1584,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43165</v>
       </c>
@@ -1540,7 +1599,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43166</v>
       </c>
@@ -1555,7 +1614,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43167</v>
       </c>
@@ -1570,7 +1629,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43168</v>
       </c>
@@ -1585,7 +1644,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43169</v>
       </c>
@@ -1602,7 +1661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43170</v>
       </c>
@@ -1617,7 +1676,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43171</v>
       </c>
@@ -1632,7 +1691,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43172</v>
       </c>
@@ -1647,7 +1706,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43173</v>
       </c>
@@ -1662,7 +1721,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43174</v>
       </c>
@@ -1677,7 +1736,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43175</v>
       </c>
@@ -1692,7 +1751,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43176</v>
       </c>
@@ -1709,7 +1768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43177</v>
       </c>
@@ -1724,7 +1783,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43178</v>
       </c>
@@ -1739,7 +1798,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43179</v>
       </c>
@@ -1754,7 +1813,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43180</v>
       </c>
@@ -1771,7 +1830,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43181</v>
       </c>
@@ -1788,7 +1847,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43182</v>
       </c>
@@ -1805,16 +1864,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43183</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="B21" s="4">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43184</v>
       </c>
@@ -1823,7 +1890,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43185</v>
       </c>
@@ -1832,7 +1899,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43186</v>
       </c>
@@ -1841,7 +1908,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43187</v>
       </c>
@@ -1850,7 +1917,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43188</v>
       </c>
@@ -1859,7 +1926,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43189</v>
       </c>
@@ -1868,7 +1935,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43190</v>
       </c>
@@ -1877,16 +1944,16 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
-        <f>SUBTOTAL(109,[xy])</f>
-        <v>79</v>
+        <f>SUBTOTAL(109,表2_2[xy])</f>
+        <v>82</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -1894,7 +1961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0</v>
       </c>
@@ -1905,7 +1972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -1916,7 +1983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -1933,7 +2000,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>3</v>
       </c>
@@ -1944,7 +2011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>4</v>
       </c>
@@ -1955,7 +2022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -1966,7 +2033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>6</v>
       </c>
@@ -1977,7 +2044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>7</v>
       </c>
@@ -1988,7 +2055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>8</v>
       </c>
@@ -1999,7 +2066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>9</v>
       </c>
@@ -2010,7 +2077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>10</v>
       </c>
@@ -2021,7 +2088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="85.5">
+    <row r="47" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>12</v>
       </c>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6A2319-D550-4104-80A3-CAD697DFCCBF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="身体状态" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>xy</t>
   </si>
@@ -157,14 +156,22 @@
   </si>
   <si>
     <t>基本好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起太早</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡太晚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,42 +246,42 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -290,18 +297,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -329,7 +326,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -338,12 +335,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
@@ -358,6 +353,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -366,14 +366,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -383,7 +377,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -535,10 +529,16 @@
                 <c:pt idx="19">
                   <c:v>3.5</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-28CA-47A6-B8D8-3FE9652FF6B7}"/>
             </c:ext>
@@ -558,6 +558,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -566,14 +571,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -583,7 +582,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -735,10 +734,16 @@
                 <c:pt idx="19">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
@@ -758,6 +763,14 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd" cmpd="sng">
+              <a:prstDash val="solid"/>
+              <a:round/>
+              <a:headEnd type="none"/>
+              <a:tailEnd w="med" len="med"/>
+            </a:ln>
+          </c:spPr>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -766,14 +779,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -783,7 +790,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -935,32 +942,29 @@
                 <c:pt idx="19">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="89815296"/>
-        <c:axId val="89457024"/>
+        <c:axId val="59615488"/>
+        <c:axId val="59244928"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="89815296"/>
+        <c:axId val="59615488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -989,7 +993,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -998,9 +1002,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1035,19 +1038,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89457024"/>
+        <c:crossAx val="59244928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89457024"/>
+        <c:axId val="59244928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1089,7 +1090,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1100,7 +1101,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1135,7 +1135,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89815296"/>
+        <c:crossAx val="59615488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1147,7 +1147,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1176,9 +1176,7 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1212,7 +1210,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1238,7 +1236,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1260,13 +1258,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_2" displayName="表2_2" ref="B1:E29" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B1:E28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="B1:E29" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B1:E28"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1527,21 +1525,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
@@ -1552,7 +1550,7 @@
     <col min="8" max="8" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1569,7 +1567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>43164</v>
       </c>
@@ -1584,7 +1582,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>43165</v>
       </c>
@@ -1599,7 +1597,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>43166</v>
       </c>
@@ -1614,7 +1612,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>43167</v>
       </c>
@@ -1629,7 +1627,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>43168</v>
       </c>
@@ -1644,7 +1642,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>43169</v>
       </c>
@@ -1661,7 +1659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>43170</v>
       </c>
@@ -1676,7 +1674,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>43171</v>
       </c>
@@ -1691,7 +1689,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>43172</v>
       </c>
@@ -1706,7 +1704,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>43173</v>
       </c>
@@ -1721,7 +1719,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>43174</v>
       </c>
@@ -1736,7 +1734,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>43175</v>
       </c>
@@ -1751,7 +1749,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>43176</v>
       </c>
@@ -1768,7 +1766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>43177</v>
       </c>
@@ -1783,7 +1781,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>43178</v>
       </c>
@@ -1798,7 +1796,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>43179</v>
       </c>
@@ -1813,7 +1811,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>43180</v>
       </c>
@@ -1830,7 +1828,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>43181</v>
       </c>
@@ -1847,7 +1845,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>43182</v>
       </c>
@@ -1864,7 +1862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>43183</v>
       </c>
@@ -1881,25 +1879,41 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>43184</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="4">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>43185</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>43186</v>
       </c>
@@ -1908,7 +1922,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>43187</v>
       </c>
@@ -1917,7 +1931,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>43188</v>
       </c>
@@ -1926,7 +1940,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>43189</v>
       </c>
@@ -1935,7 +1949,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>43190</v>
       </c>
@@ -1944,16 +1958,16 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="B29" s="3">
-        <f>SUBTOTAL(109,表2_2[xy])</f>
-        <v>82</v>
+        <f>SUBTOTAL(109,[xy])</f>
+        <v>94</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -1961,7 +1975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="3">
         <v>0</v>
       </c>
@@ -1972,7 +1986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -1983,7 +1997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -2000,7 +2014,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="3">
         <v>3</v>
       </c>
@@ -2011,7 +2025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="3">
         <v>4</v>
       </c>
@@ -2022,7 +2036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -2033,7 +2047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="3">
         <v>6</v>
       </c>
@@ -2044,7 +2058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="3">
         <v>7</v>
       </c>
@@ -2055,7 +2069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="3">
         <v>8</v>
       </c>
@@ -2066,7 +2080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="3">
         <v>9</v>
       </c>
@@ -2077,7 +2091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="3">
         <v>10</v>
       </c>
@@ -2088,7 +2102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="85.5">
       <c r="A47" s="6" t="s">
         <v>12</v>
       </c>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>xy</t>
   </si>
@@ -163,7 +163,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>睡太晚</t>
+    <t>睡太晚,另外腰痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该恢复了一点了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,6 +539,9 @@
                 <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -738,6 +745,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -946,6 +956,9 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -957,11 +970,11 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:axId val="59615488"/>
-        <c:axId val="59244928"/>
+        <c:axId val="64465152"/>
+        <c:axId val="64094592"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="59615488"/>
+        <c:axId val="64465152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,14 +1051,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59244928"/>
+        <c:crossAx val="64094592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59244928"/>
+        <c:axId val="64094592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1148,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59615488"/>
+        <c:crossAx val="64465152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1210,7 +1223,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1236,7 +1249,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1525,7 +1538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1535,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1901,7 +1914,7 @@
         <v>43185</v>
       </c>
       <c r="B23" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" s="4">
         <v>4</v>
@@ -1917,10 +1930,18 @@
       <c r="A24" s="2">
         <v>43186</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="B24" s="4">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
@@ -1961,7 +1982,7 @@
     <row r="29" spans="1:5">
       <c r="B29" s="3">
         <f>SUBTOTAL(109,[xy])</f>
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AB43EC-4113-44C6-9234-4DB0D4043545}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="身体状态" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="171027"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>xy</t>
   </si>
@@ -168,14 +169,18 @@
   </si>
   <si>
     <t>应该恢复了一点了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻子过敏，很难受</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,42 +255,42 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -301,8 +306,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -330,7 +345,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -339,10 +354,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
@@ -370,8 +387,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -381,7 +404,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -542,10 +565,13 @@
                 <c:pt idx="22">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-28CA-47A6-B8D8-3FE9652FF6B7}"/>
             </c:ext>
@@ -578,8 +604,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -589,7 +621,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -750,10 +782,13 @@
                 <c:pt idx="22">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
@@ -789,8 +824,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -800,7 +841,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -961,15 +1002,26 @@
                 <c:pt idx="22">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="64465152"/>
         <c:axId val="64094592"/>
       </c:radarChart>
@@ -978,6 +1030,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -1006,7 +1059,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1015,8 +1068,9 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1056,12 +1110,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="64094592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1103,7 +1159,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1114,6 +1170,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1160,7 +1217,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1189,7 +1246,9 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1249,7 +1308,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,13 +1330,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="B1:E29" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B1:E28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_2" displayName="表2_2" ref="B1:E29" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B1:E28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="3" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1538,21 +1597,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
@@ -1563,7 +1622,7 @@
     <col min="8" max="8" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1580,7 +1639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43164</v>
       </c>
@@ -1595,7 +1654,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43165</v>
       </c>
@@ -1610,7 +1669,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43166</v>
       </c>
@@ -1625,7 +1684,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43167</v>
       </c>
@@ -1640,7 +1699,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43168</v>
       </c>
@@ -1655,7 +1714,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43169</v>
       </c>
@@ -1672,7 +1731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43170</v>
       </c>
@@ -1687,7 +1746,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43171</v>
       </c>
@@ -1702,7 +1761,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43172</v>
       </c>
@@ -1717,7 +1776,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43173</v>
       </c>
@@ -1732,7 +1791,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43174</v>
       </c>
@@ -1747,7 +1806,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43175</v>
       </c>
@@ -1762,7 +1821,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43176</v>
       </c>
@@ -1779,7 +1838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43177</v>
       </c>
@@ -1794,7 +1853,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43178</v>
       </c>
@@ -1809,7 +1868,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43179</v>
       </c>
@@ -1824,7 +1883,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43180</v>
       </c>
@@ -1841,7 +1900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43181</v>
       </c>
@@ -1858,7 +1917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43182</v>
       </c>
@@ -1875,7 +1934,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43183</v>
       </c>
@@ -1892,7 +1951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43184</v>
       </c>
@@ -1909,7 +1968,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43185</v>
       </c>
@@ -1926,7 +1985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43186</v>
       </c>
@@ -1943,16 +2002,24 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43187</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="B25" s="4">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43188</v>
       </c>
@@ -1961,7 +2028,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43189</v>
       </c>
@@ -1970,7 +2037,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43190</v>
       </c>
@@ -1979,16 +2046,16 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
-        <f>SUBTOTAL(109,[xy])</f>
-        <v>100</v>
+        <f>SUBTOTAL(109,表2_2[xy])</f>
+        <v>107</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -1996,7 +2063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0</v>
       </c>
@@ -2007,7 +2074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -2018,7 +2085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -2035,7 +2102,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>3</v>
       </c>
@@ -2046,7 +2113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>4</v>
       </c>
@@ -2057,7 +2124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -2068,7 +2135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>6</v>
       </c>
@@ -2079,7 +2146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>7</v>
       </c>
@@ -2090,7 +2157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>8</v>
       </c>
@@ -2101,7 +2168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>9</v>
       </c>
@@ -2112,7 +2179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>10</v>
       </c>
@@ -2123,7 +2190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="85.5">
+    <row r="47" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>12</v>
       </c>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AB43EC-4113-44C6-9234-4DB0D4043545}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4458F8-7222-4188-AEA2-9671583099BE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>xy</t>
   </si>
@@ -173,6 +173,10 @@
   </si>
   <si>
     <t>鼻子过敏，很难受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花拿走了基本快要好了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,6 +572,9 @@
                 <c:pt idx="23">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -783,6 +790,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1004,6 +1014,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1608,7 +1621,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2023,10 +2036,18 @@
       <c r="A26" s="2">
         <v>43188</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="B26" s="4">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -2049,7 +2070,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <f>SUBTOTAL(109,表2_2[xy])</f>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4458F8-7222-4188-AEA2-9671583099BE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="身体状态" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>xy</t>
   </si>
@@ -177,14 +176,18 @@
   </si>
   <si>
     <t>花拿走了基本快要好了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2点才睡，困，眼睛痛，鼻子不舒服</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,42 +262,42 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -310,18 +313,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -349,7 +342,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -358,12 +351,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
@@ -391,14 +382,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -408,7 +393,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -575,10 +560,13 @@
                 <c:pt idx="24">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-28CA-47A6-B8D8-3FE9652FF6B7}"/>
             </c:ext>
@@ -611,14 +599,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -628,7 +610,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -795,10 +777,13 @@
                 <c:pt idx="24">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
@@ -834,14 +819,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -851,7 +830,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -1018,32 +997,27 @@
                 <c:pt idx="24">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="64465152"/>
-        <c:axId val="64094592"/>
+        <c:dLbls/>
+        <c:axId val="60205312"/>
+        <c:axId val="60096896"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="64465152"/>
+        <c:axId val="60205312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -1072,7 +1046,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1081,9 +1055,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1118,19 +1091,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64094592"/>
+        <c:crossAx val="60096896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64094592"/>
+        <c:axId val="60096896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1172,7 +1143,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:overlay val="0"/>
+          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1183,7 +1154,6 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1218,7 +1188,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64465152"/>
+        <c:crossAx val="60205312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1230,7 +1200,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1259,9 +1229,7 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1295,7 +1263,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1321,7 +1289,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1343,13 +1311,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_2" displayName="表2_2" ref="B1:E29" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B1:E28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="B1:E29" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B1:E28"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="3" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1610,21 +1578,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
@@ -1635,7 +1603,7 @@
     <col min="8" max="8" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1652,7 +1620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>43164</v>
       </c>
@@ -1667,7 +1635,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>43165</v>
       </c>
@@ -1682,7 +1650,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>43166</v>
       </c>
@@ -1697,7 +1665,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>43167</v>
       </c>
@@ -1712,7 +1680,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>43168</v>
       </c>
@@ -1727,7 +1695,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>43169</v>
       </c>
@@ -1744,7 +1712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>43170</v>
       </c>
@@ -1759,7 +1727,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>43171</v>
       </c>
@@ -1774,7 +1742,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>43172</v>
       </c>
@@ -1789,7 +1757,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>43173</v>
       </c>
@@ -1804,7 +1772,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>43174</v>
       </c>
@@ -1819,7 +1787,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>43175</v>
       </c>
@@ -1834,7 +1802,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>43176</v>
       </c>
@@ -1851,7 +1819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>43177</v>
       </c>
@@ -1866,7 +1834,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>43178</v>
       </c>
@@ -1881,7 +1849,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>43179</v>
       </c>
@@ -1896,7 +1864,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>43180</v>
       </c>
@@ -1913,7 +1881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>43181</v>
       </c>
@@ -1930,7 +1898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>43182</v>
       </c>
@@ -1947,7 +1915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>43183</v>
       </c>
@@ -1964,7 +1932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>43184</v>
       </c>
@@ -1981,7 +1949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>43185</v>
       </c>
@@ -1998,7 +1966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>43186</v>
       </c>
@@ -2015,7 +1983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>43187</v>
       </c>
@@ -2032,7 +2000,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>43188</v>
       </c>
@@ -2049,16 +2017,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>43189</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="4">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>43190</v>
       </c>
@@ -2067,16 +2043,16 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="B29" s="3">
-        <f>SUBTOTAL(109,表2_2[xy])</f>
-        <v>110</v>
+        <f>SUBTOTAL(109,[xy])</f>
+        <v>117</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2084,7 +2060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="3">
         <v>0</v>
       </c>
@@ -2095,7 +2071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -2106,7 +2082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -2123,7 +2099,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="3">
         <v>3</v>
       </c>
@@ -2134,7 +2110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="3">
         <v>4</v>
       </c>
@@ -2145,7 +2121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -2156,7 +2132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="3">
         <v>6</v>
       </c>
@@ -2167,7 +2143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="3">
         <v>7</v>
       </c>
@@ -2178,7 +2154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="3">
         <v>8</v>
       </c>
@@ -2189,7 +2165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="3">
         <v>9</v>
       </c>
@@ -2200,7 +2176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="3">
         <v>10</v>
       </c>
@@ -2211,7 +2187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="85.5">
       <c r="A47" s="6" t="s">
         <v>12</v>
       </c>

--- a/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
+++ b/Personal/xueyu/physical status/身体状态记录 - 2018年3月.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AB7B24-284F-43CA-B8D2-2A10FD9BE784}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="身体状态" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="171027"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -186,8 +187,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,42 +263,42 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -313,8 +314,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -342,7 +353,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -351,10 +362,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:radarChart>
         <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="0"/>
@@ -382,8 +395,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -393,7 +412,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -563,10 +582,13 @@
                 <c:pt idx="25">
                   <c:v>3.5</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-28CA-47A6-B8D8-3FE9652FF6B7}"/>
             </c:ext>
@@ -599,8 +621,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -610,7 +638,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -780,10 +808,13 @@
                 <c:pt idx="25">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
@@ -819,8 +850,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -830,7 +867,7 @@
             <c:numRef>
               <c:f>身体状态!$A$2:$A$28</c:f>
               <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>43164</c:v>
@@ -1000,16 +1037,26 @@
                 <c:pt idx="25">
                   <c:v>7</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E2DC-4425-9D9D-76E30BA0122B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="60205312"/>
         <c:axId val="60096896"/>
       </c:radarChart>
@@ -1018,6 +1065,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:title>
@@ -1046,7 +1094,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1055,8 +1103,9 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1096,12 +1145,14 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="60096896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1143,7 +1194,7 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1154,6 +1205,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1200,7 +1252,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1229,7 +1281,9 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1289,7 +1343,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038A3D36-3399-4C22-8358-33970E9B14AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1311,13 +1365,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2_2" displayName="表2_2" ref="B1:E29" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
-  <autoFilter ref="B1:E28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表2_2" displayName="表2_2" ref="B1:E29" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
+  <autoFilter ref="B1:E28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="1" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="3" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="xy" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="睡觉时间，以10点半为起点" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="心情" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="列1" dataDxfId="4" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1578,21 +1632,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
@@ -1603,7 +1657,7 @@
     <col min="8" max="8" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1620,7 +1674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43164</v>
       </c>
@@ -1635,7 +1689,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43165</v>
       </c>
@@ -1650,7 +1704,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43166</v>
       </c>
@@ -1665,7 +1719,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43167</v>
       </c>
@@ -1680,7 +1734,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43168</v>
       </c>
@@ -1695,7 +1749,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43169</v>
       </c>
@@ -1712,7 +1766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43170</v>
       </c>
@@ -1727,7 +1781,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43171</v>
       </c>
@@ -1742,7 +1796,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43172</v>
       </c>
@@ -1757,7 +1811,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43173</v>
       </c>
@@ -1772,7 +1826,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43174</v>
       </c>
@@ -1787,7 +1841,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43175</v>
       </c>
@@ -1802,7 +1856,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43176</v>
       </c>
@@ -1819,7 +1873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43177</v>
       </c>
@@ -1834,7 +1888,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43178</v>
       </c>
@@ -1849,7 +1903,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43179</v>
       </c>
@@ -1864,7 +1918,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43180</v>
       </c>
@@ -1881,7 +1935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43181</v>
       </c>
@@ -1898,7 +1952,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43182</v>
       </c>
@@ -1915,7 +1969,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43183</v>
       </c>
@@ -1932,7 +1986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43184</v>
       </c>
@@ -1949,7 +2003,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43185</v>
       </c>
@@ -1966,7 +2020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43186</v>
       </c>
@@ -1983,7 +2037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43187</v>
       </c>
@@ -2000,7 +2054,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43188</v>
       </c>
@@ -2017,7 +2071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43189</v>
       </c>
@@ -2034,25 +2088,31 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43190</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="4">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4</v>
+      </c>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
-        <f>SUBTOTAL(109,[xy])</f>
-        <v>117</v>
+        <f>SUBTOTAL(109,表2_2[xy])</f>
+        <v>122</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2060,7 +2120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>0</v>
       </c>
@@ -2071,7 +2131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -2082,7 +2142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -2099,7 +2159,7 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>3</v>
       </c>
@@ -2110,7 +2170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>4</v>
       </c>
@@ -2121,7 +2181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -2132,7 +2192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>6</v>
       </c>
@@ -2143,7 +2203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>7</v>
       </c>
@@ -2154,7 +2214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>8</v>
       </c>
@@ -2165,7 +2225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>9</v>
       </c>
@@ -2176,7 +2236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>10</v>
       </c>
@@ -2187,7 +2247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="85.5">
+    <row r="47" spans="1:11" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>12</v>
       </c>
